--- a/medicine/Mort/La_Victoire_en_chantant_(sculpture)/La_Victoire_en_chantant_(sculpture).xlsx
+++ b/medicine/Mort/La_Victoire_en_chantant_(sculpture)/La_Victoire_en_chantant_(sculpture).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Victoire en chantant est une statue du sculpteur français Charles Édouard Richefeu réalisée en 1918. Destinée aux monuments aux morts des communes françaises après la Première Guerre mondiale et éditée en série, elle est présente sur plusieurs dizaines de monuments.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La statue représente un poilu chantant, regardant vers le haut, marchant, la jambe droite en avant et la gauche en arrière. Il est vêtu de son uniforme complet, son casque Adrian sur la tête. Il porte son fusil Lebel modèle 1886 en bandoulière sur son épaule gauche et tient la sangle du fusil avec sa main gauche. Son bras droit est tendu vers l'arrière, le poing serré.
 </t>
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la Première Guerre mondiale, les pertes massives déterminent les communes françaises à rendre hommage à leurs morts. Aidées par des subventions de l'État, la quasi-totalité des communes optent pour l'érection d'un monument aux morts et on estime qu'environ 36 000 monuments sont ainsi édifiés sur le territoire français entre 1920 et 1925[1]. Malgré les aides, les conditions financières de nombreuses communes (souvent rurales et en pleine reconstruction d'après-guerre) conduisent les fonderies à éditer des catalogues proposant des éléments de série.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la Première Guerre mondiale, les pertes massives déterminent les communes françaises à rendre hommage à leurs morts. Aidées par des subventions de l'État, la quasi-totalité des communes optent pour l'érection d'un monument aux morts et on estime qu'environ 36 000 monuments sont ainsi édifiés sur le territoire français entre 1920 et 1925. Malgré les aides, les conditions financières de nombreuses communes (souvent rurales et en pleine reconstruction d'après-guerre) conduisent les fonderies à éditer des catalogues proposant des éléments de série.
 Le modèle en plâtre figura au Salon des artistes français de 1919. Cette statue est éditée en bronze et en fonte par la fonderie d'art du Val d'Osne.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Liste de monuments aux morts constitués de cette statue en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les monuments sont classés par ordre alphabétique de départements et, au sein de ceux-ci, par ordre alphabétique de communes, ou anciennes communes.
 </t>
